--- a/SEC_Analysis_Results/Var_R50%.xlsx
+++ b/SEC_Analysis_Results/Var_R50%.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mangu\Desktop\Nir Water Lab\High-Recovery-Effluent-RO\SEC_Analysis_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BFA0B9-FC2B-4D04-8A43-7B8605E36B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB16267-4AB7-4D0F-AB9D-7500A63DC350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,6 +157,1498 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>19.311690551069976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.305075448013998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.298365067677214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.291557067862989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.284648998051036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.277638337292309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.270522452262753</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.263298657338474</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.255964142448246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.248515952693726</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.240951110505158</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.233266476093331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.22545876255025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.21752456670519</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.209460417659589</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.201262624307301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.19292737117669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.184450714256414</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.175828556768984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.16705654714923</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.158130255505046</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.149044978004635</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.139795861487563</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.130377796982657</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.120785518783002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.111013447873923</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.101055781186371</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.09090645709875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.080559124908163</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.070007126783342</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.059243481559083</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.048260869799236</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.037051657450352</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.025607703257222</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.013920633111784</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.001981445512921</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.989780772778957</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.977308772887788</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18.964555003065175</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18.951508465536893</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18.938157597911722</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18.924490082193074</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.910492966034312</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.896152503915953</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18.88145409752056</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.866382365261313</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.85092083867287</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.835052065865284</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.818757518710147</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18.802017397268838</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18.77742736214902</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.256683659823352</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.240570279373038</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.223976292562462</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.206876761917464</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.18924491492804</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.171052000121609</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.152266926693564</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.132856203981881</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19.112783492908338</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.092009432996186</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19.070491319118126</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19.048182637550262</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19.025032633946292</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.000985892401726</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>18.975981579275583</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18.949952954977025</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18.92282648756948</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18.894520896355289</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18.86494616849193</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18.834002257798979</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18.801577584146376</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18.767547217652549</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.73177085572943</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.683800527111085</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>19.101589175365213</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.072799330554272</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19.04223699338063</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.009708167153136</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>18.97498735358921</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>18.937810791775423</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>18.897867472217101</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>18.854787708347786</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18.808127941224594</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>18.757350491480906</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>18.701796130981659</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18.63223899604079</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20.463076891319844</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20.44898731204384</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20.433961239237309</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>20.417763397295115</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>20.400059887453015</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>20.380359079140138</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20.349213827111189</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20.545035387933517</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20.522900747732944</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>20.49519728521107</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>20.456914633737767</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>20.388017377037418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFBF-4FC6-BDB6-273247E21BF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1562669232"/>
+        <c:axId val="1563343088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1562669232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563343088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1563343088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1562669232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536574</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02616D18-433A-FB16-0DC4-C66BBC159758}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,7 +1941,7 @@
   <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4529,5 +6021,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>